--- a/Data/Networks/Networks_agent_Wealth.xlsx_10_10_2.xlsx
+++ b/Data/Networks/Networks_agent_Wealth.xlsx_10_10_2.xlsx
@@ -426,7 +426,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.674804056292438</v>
+        <v>5.698726904442828</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -443,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>4.485757877750068</v>
+        <v>5.102014106780913</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -460,7 +460,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.338506171323255</v>
+        <v>3.19737725268015</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>4.142160017415019</v>
+        <v>4.183573955028015</v>
       </c>
       <c r="D5" t="s">
         <v>5</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.240799424097794</v>
+        <v>4.284524345489238</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -511,7 +511,7 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.940963083685474</v>
+        <v>6.930277377669694</v>
       </c>
       <c r="D7" t="s">
         <v>5</v>
@@ -528,7 +528,7 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>7.031819724761867</v>
+        <v>3.663051526842189</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -545,7 +545,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>6.15059262136065</v>
+        <v>4.933114440999457</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
@@ -562,7 +562,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.20267604230249</v>
+        <v>9.957388361793729</v>
       </c>
       <c r="D10" t="s">
         <v>5</v>
@@ -579,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>4.287180215610543</v>
+        <v>3.479880153330199</v>
       </c>
       <c r="D11" t="s">
         <v>5</v>
@@ -596,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>3.464087545457839</v>
+        <v>4.957654729238778</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
@@ -613,7 +613,7 @@
         <v>8</v>
       </c>
       <c r="C13">
-        <v>3.890275000951391</v>
+        <v>3.730414279581709</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
@@ -630,7 +630,7 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>4.284424455021752</v>
+        <v>3.033276564696725</v>
       </c>
       <c r="D14" t="s">
         <v>5</v>
@@ -647,7 +647,7 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>7.61184164168726</v>
+        <v>3.285342507253429</v>
       </c>
       <c r="D15" t="s">
         <v>5</v>
@@ -664,7 +664,7 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>5.127726797861365</v>
+        <v>6.152280129130048</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -681,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>3.252335652993244</v>
+        <v>6.813877127205583</v>
       </c>
       <c r="D17" t="s">
         <v>5</v>
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>4.978261685069144</v>
+        <v>2.201576401933891</v>
       </c>
       <c r="D18" t="s">
         <v>5</v>
@@ -715,7 +715,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>5.133347500770159</v>
+        <v>6.848923895617977</v>
       </c>
       <c r="D19" t="s">
         <v>5</v>
@@ -732,7 +732,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.410436115826123</v>
+        <v>3.139281726143495</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -749,7 +749,7 @@
         <v>4</v>
       </c>
       <c r="C21">
-        <v>2.750681904360492</v>
+        <v>6.855843826404202</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>3.278773326861527</v>
+        <v>4.871909314917802</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
@@ -783,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="C23">
-        <v>4.391771684574985</v>
+        <v>4.053006522629213</v>
       </c>
       <c r="D23" t="s">
         <v>5</v>
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="C24">
-        <v>6.870630463982559</v>
+        <v>3.369097244718022</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -817,7 +817,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>4.251053808896834</v>
+        <v>4.837696868078475</v>
       </c>
       <c r="D25" t="s">
         <v>5</v>
@@ -834,7 +834,7 @@
         <v>5</v>
       </c>
       <c r="C26">
-        <v>3.325167662996317</v>
+        <v>7.32128071806422</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -851,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>7.161106038789033</v>
+        <v>4.55867124170773</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
@@ -868,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="C28">
-        <v>5.451444956193956</v>
+        <v>4.733816091589205</v>
       </c>
       <c r="D28" t="s">
         <v>5</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>3.82735791721906</v>
+        <v>1.789845614334859</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>3.62879913580042</v>
+        <v>4.677441814257596</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -919,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>3.29685235796695</v>
+        <v>3.315611728920735</v>
       </c>
       <c r="D31" t="s">
         <v>5</v>
@@ -936,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="C32">
-        <v>6.199722444605823</v>
+        <v>3.367346277678601</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
@@ -953,7 +953,7 @@
         <v>8</v>
       </c>
       <c r="C33">
-        <v>4.167875748870186</v>
+        <v>4.017772906804706</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
@@ -970,7 +970,7 @@
         <v>7</v>
       </c>
       <c r="C34">
-        <v>5.406956789118359</v>
+        <v>5.23592267788325</v>
       </c>
       <c r="D34" t="s">
         <v>5</v>
@@ -987,7 +987,7 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>3.441360278619022</v>
+        <v>3.86855012656142</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
@@ -1004,7 +1004,7 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>4.539381224863214</v>
+        <v>3.493954385529185</v>
       </c>
       <c r="D36" t="s">
         <v>5</v>
@@ -1021,7 +1021,7 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>3.914758490942835</v>
+        <v>6.934575598367909</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -1038,7 +1038,7 @@
         <v>2</v>
       </c>
       <c r="C38">
-        <v>6.388756707704217</v>
+        <v>6.475386314063972</v>
       </c>
       <c r="D38" t="s">
         <v>5</v>
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="C39">
-        <v>6.989592040735604</v>
+        <v>5.209160110712984</v>
       </c>
       <c r="D39" t="s">
         <v>5</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>4.400339554016893</v>
+        <v>4.596873079762572</v>
       </c>
       <c r="D40" t="s">
         <v>5</v>
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>3.482282737603831</v>
+        <v>3.800321096042988</v>
       </c>
       <c r="D41" t="s">
         <v>5</v>
@@ -1106,7 +1106,7 @@
         <v>9</v>
       </c>
       <c r="C42">
-        <v>6.002616493623958</v>
+        <v>5.287034310465536</v>
       </c>
       <c r="D42" t="s">
         <v>5</v>
@@ -1123,7 +1123,7 @@
         <v>8</v>
       </c>
       <c r="C43">
-        <v>6.216259474624408</v>
+        <v>3.56232032503648</v>
       </c>
       <c r="D43" t="s">
         <v>5</v>
@@ -1140,7 +1140,7 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>4.90001361599385</v>
+        <v>7.106241349221294</v>
       </c>
       <c r="D44" t="s">
         <v>5</v>
@@ -1157,7 +1157,7 @@
         <v>6</v>
       </c>
       <c r="C45">
-        <v>8.138838181735096</v>
+        <v>4.222663322545352</v>
       </c>
       <c r="D45" t="s">
         <v>5</v>
@@ -1174,7 +1174,7 @@
         <v>5</v>
       </c>
       <c r="C46">
-        <v>3.873188503494958</v>
+        <v>2.688508940193805</v>
       </c>
       <c r="D46" t="s">
         <v>5</v>
@@ -1191,7 +1191,7 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>4.37766903043319</v>
+        <v>4.247227165201383</v>
       </c>
       <c r="D47" t="s">
         <v>5</v>
@@ -1208,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="C48">
-        <v>6.346177159429176</v>
+        <v>1.614092433763877</v>
       </c>
       <c r="D48" t="s">
         <v>5</v>
@@ -1225,7 +1225,7 @@
         <v>2</v>
       </c>
       <c r="C49">
-        <v>5.78763093186104</v>
+        <v>4.684003549661805</v>
       </c>
       <c r="D49" t="s">
         <v>5</v>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>5.19757334070213</v>
+        <v>6.461540029643511</v>
       </c>
       <c r="D50" t="s">
         <v>5</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>7.160696190042384</v>
+        <v>4.499968746993794</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1276,7 +1276,7 @@
         <v>8</v>
       </c>
       <c r="C52">
-        <v>4.665570445786152</v>
+        <v>5.089384434360742</v>
       </c>
       <c r="D52" t="s">
         <v>5</v>
@@ -1293,7 +1293,7 @@
         <v>9</v>
       </c>
       <c r="C53">
-        <v>5.119533697728142</v>
+        <v>4.83238884185419</v>
       </c>
       <c r="D53" t="s">
         <v>5</v>
@@ -1310,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="C54">
-        <v>3.00914182377339</v>
+        <v>4.286050575830123</v>
       </c>
       <c r="D54" t="s">
         <v>5</v>
@@ -1327,7 +1327,7 @@
         <v>5</v>
       </c>
       <c r="C55">
-        <v>5.782210327417197</v>
+        <v>5.880260769467041</v>
       </c>
       <c r="D55" t="s">
         <v>5</v>
@@ -1344,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="C56">
-        <v>5.830900890662745</v>
+        <v>6.574654865767745</v>
       </c>
       <c r="D56" t="s">
         <v>5</v>
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="C57">
-        <v>4.371262005571636</v>
+        <v>4.076165617104397</v>
       </c>
       <c r="D57" t="s">
         <v>5</v>
@@ -1378,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="C58">
-        <v>3.476307740206998</v>
+        <v>4.099464761093411</v>
       </c>
       <c r="D58" t="s">
         <v>5</v>
@@ -1395,7 +1395,7 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>4.530976424972467</v>
+        <v>2.241722486279517</v>
       </c>
       <c r="D59" t="s">
         <v>5</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>6.643977991961997</v>
+        <v>7.787149655154119</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -1429,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="C61">
-        <v>3.982831944048561</v>
+        <v>3.967232806423527</v>
       </c>
       <c r="D61" t="s">
         <v>5</v>
@@ -1446,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="C62">
-        <v>5.05179009195837</v>
+        <v>6.926419982832716</v>
       </c>
       <c r="D62" t="s">
         <v>5</v>
@@ -1463,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="C63">
-        <v>3.795933001073292</v>
+        <v>4.422422409910446</v>
       </c>
       <c r="D63" t="s">
         <v>5</v>
@@ -1480,7 +1480,7 @@
         <v>6</v>
       </c>
       <c r="C64">
-        <v>4.093711136212021</v>
+        <v>5.341432145219903</v>
       </c>
       <c r="D64" t="s">
         <v>5</v>
@@ -1497,7 +1497,7 @@
         <v>5</v>
       </c>
       <c r="C65">
-        <v>5.758135620661235</v>
+        <v>3.674392536576226</v>
       </c>
       <c r="D65" t="s">
         <v>5</v>
@@ -1514,7 +1514,7 @@
         <v>7</v>
       </c>
       <c r="C66">
-        <v>3.959362934163622</v>
+        <v>5.055353978733459</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -1531,7 +1531,7 @@
         <v>3</v>
       </c>
       <c r="C67">
-        <v>4.051589997271822</v>
+        <v>2.695715105412735</v>
       </c>
       <c r="D67" t="s">
         <v>5</v>
@@ -1548,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="C68">
-        <v>5.936788080923425</v>
+        <v>4.560041867235359</v>
       </c>
       <c r="D68" t="s">
         <v>5</v>
@@ -1565,7 +1565,7 @@
         <v>1</v>
       </c>
       <c r="C69">
-        <v>7.096158234102574</v>
+        <v>4.695568789531031</v>
       </c>
       <c r="D69" t="s">
         <v>5</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>4.196642837219973</v>
+        <v>3.292317360625282</v>
       </c>
       <c r="D70" t="s">
         <v>5</v>
@@ -1599,7 +1599,7 @@
         <v>4</v>
       </c>
       <c r="C71">
-        <v>4.884235922662555</v>
+        <v>6.524455958750567</v>
       </c>
       <c r="D71" t="s">
         <v>5</v>
@@ -1616,7 +1616,7 @@
         <v>8</v>
       </c>
       <c r="C72">
-        <v>5.437858750701583</v>
+        <v>6.255300150702012</v>
       </c>
       <c r="D72" t="s">
         <v>5</v>
@@ -1633,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>6.193335386781452</v>
+        <v>5.992857287988056</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="C74">
-        <v>3.212734257066232</v>
+        <v>7.274004232316409</v>
       </c>
       <c r="D74" t="s">
         <v>5</v>
@@ -1667,7 +1667,7 @@
         <v>2</v>
       </c>
       <c r="C75">
-        <v>7.230692055814173</v>
+        <v>6.185344261517986</v>
       </c>
       <c r="D75" t="s">
         <v>5</v>
@@ -1684,7 +1684,7 @@
         <v>3</v>
       </c>
       <c r="C76">
-        <v>5.100948373074952</v>
+        <v>5.302896859360781</v>
       </c>
       <c r="D76" t="s">
         <v>5</v>
@@ -1701,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>6.412997125547409</v>
+        <v>4.977269998214637</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -1718,7 +1718,7 @@
         <v>5</v>
       </c>
       <c r="C78">
-        <v>6.848990021862478</v>
+        <v>3.105772628227392</v>
       </c>
       <c r="D78" t="s">
         <v>5</v>
@@ -1735,7 +1735,7 @@
         <v>6</v>
       </c>
       <c r="C79">
-        <v>6.14423200106599</v>
+        <v>6.540011383820361</v>
       </c>
       <c r="D79" t="s">
         <v>5</v>
@@ -1752,7 +1752,7 @@
         <v>7</v>
       </c>
       <c r="C80">
-        <v>3.085173584612593</v>
+        <v>6.042624453233943</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -1769,7 +1769,7 @@
         <v>9</v>
       </c>
       <c r="C81">
-        <v>4.750127317942287</v>
+        <v>4.984831096986548</v>
       </c>
       <c r="D81" t="s">
         <v>5</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>3.405800450627478</v>
+        <v>3.166596226460009</v>
       </c>
       <c r="D82" t="s">
         <v>6</v>
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="C83">
-        <v>3.368005095572148</v>
+        <v>5.882925182629507</v>
       </c>
       <c r="D83" t="s">
         <v>6</v>
@@ -1820,7 +1820,7 @@
         <v>2</v>
       </c>
       <c r="C84">
-        <v>3.883413378394366</v>
+        <v>4.572366838210661</v>
       </c>
       <c r="D84" t="s">
         <v>6</v>
@@ -1837,7 +1837,7 @@
         <v>3</v>
       </c>
       <c r="C85">
-        <v>6.63303348315512</v>
+        <v>3.897293136702935</v>
       </c>
       <c r="D85" t="s">
         <v>6</v>
@@ -1854,7 +1854,7 @@
         <v>4</v>
       </c>
       <c r="C86">
-        <v>2.338984118715961</v>
+        <v>5.935102284475231</v>
       </c>
       <c r="D86" t="s">
         <v>6</v>
@@ -1871,7 +1871,7 @@
         <v>5</v>
       </c>
       <c r="C87">
-        <v>7.034683569176529</v>
+        <v>4.009918613386322</v>
       </c>
       <c r="D87" t="s">
         <v>6</v>
@@ -1888,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="C88">
-        <v>10.92320878249838</v>
+        <v>7.272649097819097</v>
       </c>
       <c r="D88" t="s">
         <v>6</v>
@@ -1905,7 +1905,7 @@
         <v>7</v>
       </c>
       <c r="C89">
-        <v>3.826168518853971</v>
+        <v>2.956580934469515</v>
       </c>
       <c r="D89" t="s">
         <v>6</v>
@@ -1922,7 +1922,7 @@
         <v>8</v>
       </c>
       <c r="C90">
-        <v>3.915621172688478</v>
+        <v>4.026227898094432</v>
       </c>
       <c r="D90" t="s">
         <v>6</v>
@@ -1939,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="C91">
-        <v>4.288052018019758</v>
+        <v>1.410994570678903</v>
       </c>
       <c r="D91" t="s">
         <v>6</v>
@@ -1956,7 +1956,7 @@
         <v>9</v>
       </c>
       <c r="C92">
-        <v>4.855308905483106</v>
+        <v>7.273379260520544</v>
       </c>
       <c r="D92" t="s">
         <v>6</v>
@@ -1973,7 +1973,7 @@
         <v>8</v>
       </c>
       <c r="C93">
-        <v>7.355439418711113</v>
+        <v>5.683543201118713</v>
       </c>
       <c r="D93" t="s">
         <v>6</v>
@@ -1990,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="C94">
-        <v>4.270102370649978</v>
+        <v>5.135270667973513</v>
       </c>
       <c r="D94" t="s">
         <v>6</v>
@@ -2007,7 +2007,7 @@
         <v>5</v>
       </c>
       <c r="C95">
-        <v>6.066210302200308</v>
+        <v>4.603920998435054</v>
       </c>
       <c r="D95" t="s">
         <v>6</v>
@@ -2024,7 +2024,7 @@
         <v>6</v>
       </c>
       <c r="C96">
-        <v>4.056444690718402</v>
+        <v>2.897615176813872</v>
       </c>
       <c r="D96" t="s">
         <v>6</v>
@@ -2041,7 +2041,7 @@
         <v>3</v>
       </c>
       <c r="C97">
-        <v>3.689114679685613</v>
+        <v>5.113955610163206</v>
       </c>
       <c r="D97" t="s">
         <v>6</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <v>5.785675722012486</v>
+        <v>3.948115619767003</v>
       </c>
       <c r="D98" t="s">
         <v>6</v>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="C99">
-        <v>3.983102590372392</v>
+        <v>4.352447803594652</v>
       </c>
       <c r="D99" t="s">
         <v>6</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>7.568573374809156</v>
+        <v>4.451248276855932</v>
       </c>
       <c r="D100" t="s">
         <v>6</v>
@@ -2109,7 +2109,7 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>2.819290061253606</v>
+        <v>3.17965175978349</v>
       </c>
       <c r="D101" t="s">
         <v>6</v>
@@ -2126,7 +2126,7 @@
         <v>9</v>
       </c>
       <c r="C102">
-        <v>4.825511115354862</v>
+        <v>4.65159107065303</v>
       </c>
       <c r="D102" t="s">
         <v>6</v>
@@ -2143,7 +2143,7 @@
         <v>8</v>
       </c>
       <c r="C103">
-        <v>4.816254294294088</v>
+        <v>3.906331335672179</v>
       </c>
       <c r="D103" t="s">
         <v>6</v>
@@ -2160,7 +2160,7 @@
         <v>7</v>
       </c>
       <c r="C104">
-        <v>4.317665049163373</v>
+        <v>4.869966976676348</v>
       </c>
       <c r="D104" t="s">
         <v>6</v>
@@ -2177,7 +2177,7 @@
         <v>6</v>
       </c>
       <c r="C105">
-        <v>7.507532445888631</v>
+        <v>4.178561673411385</v>
       </c>
       <c r="D105" t="s">
         <v>6</v>
@@ -2194,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="C106">
-        <v>4.434490617258614</v>
+        <v>6.110820322248444</v>
       </c>
       <c r="D106" t="s">
         <v>6</v>
@@ -2211,7 +2211,7 @@
         <v>4</v>
       </c>
       <c r="C107">
-        <v>4.743146075013977</v>
+        <v>5.652079302724299</v>
       </c>
       <c r="D107" t="s">
         <v>6</v>
@@ -2228,7 +2228,7 @@
         <v>2</v>
       </c>
       <c r="C108">
-        <v>5.001137190253679</v>
+        <v>7.127472346417651</v>
       </c>
       <c r="D108" t="s">
         <v>6</v>
@@ -2245,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="C109">
-        <v>6.63987680657384</v>
+        <v>4.170145458383733</v>
       </c>
       <c r="D109" t="s">
         <v>6</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>3.228216482127404</v>
+        <v>4.266734331496118</v>
       </c>
       <c r="D110" t="s">
         <v>6</v>
@@ -2279,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="C111">
-        <v>5.21717550184241</v>
+        <v>6.576676395526785</v>
       </c>
       <c r="D111" t="s">
         <v>6</v>
@@ -2296,7 +2296,7 @@
         <v>6</v>
       </c>
       <c r="C112">
-        <v>7.152334698893626</v>
+        <v>4.325789655433065</v>
       </c>
       <c r="D112" t="s">
         <v>6</v>
@@ -2313,7 +2313,7 @@
         <v>8</v>
       </c>
       <c r="C113">
-        <v>4.707686573119985</v>
+        <v>5.995852974247818</v>
       </c>
       <c r="D113" t="s">
         <v>6</v>
@@ -2330,7 +2330,7 @@
         <v>7</v>
       </c>
       <c r="C114">
-        <v>3.639139348044421</v>
+        <v>4.009386459345151</v>
       </c>
       <c r="D114" t="s">
         <v>6</v>
@@ -2347,7 +2347,7 @@
         <v>5</v>
       </c>
       <c r="C115">
-        <v>3.794669545811978</v>
+        <v>6.01795188823862</v>
       </c>
       <c r="D115" t="s">
         <v>6</v>
@@ -2364,7 +2364,7 @@
         <v>9</v>
       </c>
       <c r="C116">
-        <v>2.816322187327073</v>
+        <v>2.581950554232574</v>
       </c>
       <c r="D116" t="s">
         <v>6</v>
@@ -2381,7 +2381,7 @@
         <v>3</v>
       </c>
       <c r="C117">
-        <v>6.950739954264673</v>
+        <v>4.034750482852671</v>
       </c>
       <c r="D117" t="s">
         <v>6</v>
@@ -2398,7 +2398,7 @@
         <v>2</v>
       </c>
       <c r="C118">
-        <v>4.59504672869037</v>
+        <v>3.662202486778142</v>
       </c>
       <c r="D118" t="s">
         <v>6</v>
@@ -2415,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="C119">
-        <v>4.074949012932313</v>
+        <v>6.398936004496333</v>
       </c>
       <c r="D119" t="s">
         <v>6</v>
@@ -2432,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>7.744137390905951</v>
+        <v>5.177554072201992</v>
       </c>
       <c r="D120" t="s">
         <v>6</v>
@@ -2449,7 +2449,7 @@
         <v>4</v>
       </c>
       <c r="C121">
-        <v>4.744777912116162</v>
+        <v>4.385871562969597</v>
       </c>
       <c r="D121" t="s">
         <v>6</v>
@@ -2466,7 +2466,7 @@
         <v>9</v>
       </c>
       <c r="C122">
-        <v>3.855701429622267</v>
+        <v>3.629641542831404</v>
       </c>
       <c r="D122" t="s">
         <v>6</v>
@@ -2483,7 +2483,7 @@
         <v>8</v>
       </c>
       <c r="C123">
-        <v>3.503201780431409</v>
+        <v>3.613881430199659</v>
       </c>
       <c r="D123" t="s">
         <v>6</v>
@@ -2500,7 +2500,7 @@
         <v>7</v>
       </c>
       <c r="C124">
-        <v>8.849037983762294</v>
+        <v>3.895914124180754</v>
       </c>
       <c r="D124" t="s">
         <v>6</v>
@@ -2517,7 +2517,7 @@
         <v>6</v>
       </c>
       <c r="C125">
-        <v>5.137528757433762</v>
+        <v>4.500877635466797</v>
       </c>
       <c r="D125" t="s">
         <v>6</v>
@@ -2534,7 +2534,7 @@
         <v>5</v>
       </c>
       <c r="C126">
-        <v>3.870945272017142</v>
+        <v>2.838896171969963</v>
       </c>
       <c r="D126" t="s">
         <v>6</v>
@@ -2551,7 +2551,7 @@
         <v>4</v>
       </c>
       <c r="C127">
-        <v>5.38596978040718</v>
+        <v>5.431631031215185</v>
       </c>
       <c r="D127" t="s">
         <v>6</v>
@@ -2568,7 +2568,7 @@
         <v>3</v>
       </c>
       <c r="C128">
-        <v>5.247662516152458</v>
+        <v>6.440838082941799</v>
       </c>
       <c r="D128" t="s">
         <v>6</v>
@@ -2585,7 +2585,7 @@
         <v>2</v>
       </c>
       <c r="C129">
-        <v>4.349651039943415</v>
+        <v>5.107256794604231</v>
       </c>
       <c r="D129" t="s">
         <v>6</v>
@@ -2602,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="C130">
-        <v>4.169566372270918</v>
+        <v>3.475718153426875</v>
       </c>
       <c r="D130" t="s">
         <v>6</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>5.252422915146258</v>
+        <v>5.682380419101449</v>
       </c>
       <c r="D131" t="s">
         <v>6</v>
@@ -2636,7 +2636,7 @@
         <v>8</v>
       </c>
       <c r="C132">
-        <v>5.693283419615589</v>
+        <v>3.419968115981892</v>
       </c>
       <c r="D132" t="s">
         <v>6</v>
@@ -2653,7 +2653,7 @@
         <v>9</v>
       </c>
       <c r="C133">
-        <v>5.232113926105522</v>
+        <v>5.769794142189218</v>
       </c>
       <c r="D133" t="s">
         <v>6</v>
@@ -2670,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="C134">
-        <v>4.794435574604554</v>
+        <v>6.082558769314874</v>
       </c>
       <c r="D134" t="s">
         <v>6</v>
@@ -2687,7 +2687,7 @@
         <v>5</v>
       </c>
       <c r="C135">
-        <v>3.422986438957461</v>
+        <v>4.050005035725921</v>
       </c>
       <c r="D135" t="s">
         <v>6</v>
@@ -2704,7 +2704,7 @@
         <v>7</v>
       </c>
       <c r="C136">
-        <v>4.049006804777898</v>
+        <v>2.633926664791383</v>
       </c>
       <c r="D136" t="s">
         <v>6</v>
@@ -2721,7 +2721,7 @@
         <v>3</v>
       </c>
       <c r="C137">
-        <v>3.836282470123373</v>
+        <v>6.217220098802848</v>
       </c>
       <c r="D137" t="s">
         <v>6</v>
@@ -2738,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="C138">
-        <v>5.147724788617396</v>
+        <v>4.9846975458452</v>
       </c>
       <c r="D138" t="s">
         <v>6</v>
@@ -2755,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="C139">
-        <v>4.17693046035081</v>
+        <v>5.687670432429948</v>
       </c>
       <c r="D139" t="s">
         <v>6</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>3.753829079083359</v>
+        <v>3.389678569337396</v>
       </c>
       <c r="D140" t="s">
         <v>6</v>
@@ -2789,7 +2789,7 @@
         <v>4</v>
       </c>
       <c r="C141">
-        <v>5.539453938031227</v>
+        <v>4.618380949897161</v>
       </c>
       <c r="D141" t="s">
         <v>6</v>
@@ -2806,7 +2806,7 @@
         <v>9</v>
       </c>
       <c r="C142">
-        <v>6.407382571072969</v>
+        <v>4.190746710752145</v>
       </c>
       <c r="D142" t="s">
         <v>6</v>
@@ -2823,7 +2823,7 @@
         <v>8</v>
       </c>
       <c r="C143">
-        <v>4.460275933234565</v>
+        <v>5.186135944308821</v>
       </c>
       <c r="D143" t="s">
         <v>6</v>
@@ -2840,7 +2840,7 @@
         <v>6</v>
       </c>
       <c r="C144">
-        <v>4.742623769965333</v>
+        <v>5.744971564555557</v>
       </c>
       <c r="D144" t="s">
         <v>6</v>
@@ -2857,7 +2857,7 @@
         <v>5</v>
       </c>
       <c r="C145">
-        <v>3.667821438373787</v>
+        <v>5.723666784452237</v>
       </c>
       <c r="D145" t="s">
         <v>6</v>
@@ -2874,7 +2874,7 @@
         <v>7</v>
       </c>
       <c r="C146">
-        <v>5.516089966974323</v>
+        <v>3.346758276320871</v>
       </c>
       <c r="D146" t="s">
         <v>6</v>
@@ -2891,7 +2891,7 @@
         <v>3</v>
       </c>
       <c r="C147">
-        <v>6.617385850581208</v>
+        <v>3.886172234603314</v>
       </c>
       <c r="D147" t="s">
         <v>6</v>
@@ -2908,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="C148">
-        <v>7.787401782454345</v>
+        <v>3.382382040340241</v>
       </c>
       <c r="D148" t="s">
         <v>6</v>
@@ -2925,7 +2925,7 @@
         <v>1</v>
       </c>
       <c r="C149">
-        <v>6.574587323949539</v>
+        <v>6.06498592031709</v>
       </c>
       <c r="D149" t="s">
         <v>6</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>5.048835937150143</v>
+        <v>5.131462866067412</v>
       </c>
       <c r="D150" t="s">
         <v>6</v>
@@ -2959,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="C151">
-        <v>2.227940714126651</v>
+        <v>6.406327781803983</v>
       </c>
       <c r="D151" t="s">
         <v>6</v>
@@ -2976,7 +2976,7 @@
         <v>8</v>
       </c>
       <c r="C152">
-        <v>3.697115905649434</v>
+        <v>4.595676269401556</v>
       </c>
       <c r="D152" t="s">
         <v>6</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>4.529096471853864</v>
+        <v>4.043316257125951</v>
       </c>
       <c r="D153" t="s">
         <v>6</v>
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="C154">
-        <v>5.818388989670567</v>
+        <v>6.208613822176705</v>
       </c>
       <c r="D154" t="s">
         <v>6</v>
@@ -3027,7 +3027,7 @@
         <v>2</v>
       </c>
       <c r="C155">
-        <v>6.198084802324248</v>
+        <v>5.943966331754036</v>
       </c>
       <c r="D155" t="s">
         <v>6</v>
@@ -3044,7 +3044,7 @@
         <v>3</v>
       </c>
       <c r="C156">
-        <v>3.941086711465269</v>
+        <v>7.070416471122145</v>
       </c>
       <c r="D156" t="s">
         <v>6</v>
@@ -3061,7 +3061,7 @@
         <v>4</v>
       </c>
       <c r="C157">
-        <v>6.107792930676191</v>
+        <v>5.513309194633909</v>
       </c>
       <c r="D157" t="s">
         <v>6</v>
@@ -3078,7 +3078,7 @@
         <v>5</v>
       </c>
       <c r="C158">
-        <v>5.358744347881262</v>
+        <v>5.32330916894673</v>
       </c>
       <c r="D158" t="s">
         <v>6</v>
@@ -3095,7 +3095,7 @@
         <v>6</v>
       </c>
       <c r="C159">
-        <v>4.629684544690086</v>
+        <v>4.116991679391749</v>
       </c>
       <c r="D159" t="s">
         <v>6</v>
@@ -3112,7 +3112,7 @@
         <v>7</v>
       </c>
       <c r="C160">
-        <v>3.631976496096533</v>
+        <v>5.057742951413656</v>
       </c>
       <c r="D160" t="s">
         <v>6</v>
@@ -3129,7 +3129,7 @@
         <v>9</v>
       </c>
       <c r="C161">
-        <v>6.630534855901982</v>
+        <v>4.834738676483338</v>
       </c>
       <c r="D161" t="s">
         <v>6</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>6.857899866541771</v>
+        <v>4.199695106436349</v>
       </c>
       <c r="D162" t="s">
         <v>7</v>
@@ -3163,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="C163">
-        <v>6.159588973499844</v>
+        <v>2.433444719202494</v>
       </c>
       <c r="D163" t="s">
         <v>7</v>
@@ -3180,7 +3180,7 @@
         <v>2</v>
       </c>
       <c r="C164">
-        <v>5.035750479426171</v>
+        <v>5.19147507514996</v>
       </c>
       <c r="D164" t="s">
         <v>7</v>
@@ -3197,7 +3197,7 @@
         <v>3</v>
       </c>
       <c r="C165">
-        <v>3.190117820899785</v>
+        <v>4.216789819473347</v>
       </c>
       <c r="D165" t="s">
         <v>7</v>
@@ -3214,7 +3214,7 @@
         <v>4</v>
       </c>
       <c r="C166">
-        <v>4.965265035549415</v>
+        <v>4.305972619232837</v>
       </c>
       <c r="D166" t="s">
         <v>7</v>
@@ -3231,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="C167">
-        <v>4.974062891586902</v>
+        <v>5.050874201103634</v>
       </c>
       <c r="D167" t="s">
         <v>7</v>
@@ -3248,7 +3248,7 @@
         <v>6</v>
       </c>
       <c r="C168">
-        <v>5.003036333036233</v>
+        <v>7.90155452326526</v>
       </c>
       <c r="D168" t="s">
         <v>7</v>
@@ -3265,7 +3265,7 @@
         <v>7</v>
       </c>
       <c r="C169">
-        <v>5.417628799041512</v>
+        <v>3.80047439679764</v>
       </c>
       <c r="D169" t="s">
         <v>7</v>
@@ -3282,7 +3282,7 @@
         <v>8</v>
       </c>
       <c r="C170">
-        <v>2.232740794007475</v>
+        <v>3.434253300416816</v>
       </c>
       <c r="D170" t="s">
         <v>7</v>
@@ -3299,7 +3299,7 @@
         <v>9</v>
       </c>
       <c r="C171">
-        <v>7.468573122144394</v>
+        <v>3.728660458907843</v>
       </c>
       <c r="D171" t="s">
         <v>7</v>
@@ -3316,7 +3316,7 @@
         <v>9</v>
       </c>
       <c r="C172">
-        <v>1.568815313323033</v>
+        <v>5.887371928918646</v>
       </c>
       <c r="D172" t="s">
         <v>7</v>
@@ -3333,7 +3333,7 @@
         <v>8</v>
       </c>
       <c r="C173">
-        <v>4.23117496480557</v>
+        <v>5.412910908365956</v>
       </c>
       <c r="D173" t="s">
         <v>7</v>
@@ -3350,7 +3350,7 @@
         <v>7</v>
       </c>
       <c r="C174">
-        <v>3.62445440043046</v>
+        <v>5.262512489385371</v>
       </c>
       <c r="D174" t="s">
         <v>7</v>
@@ -3367,7 +3367,7 @@
         <v>5</v>
       </c>
       <c r="C175">
-        <v>5.747397443602877</v>
+        <v>4.126877339477586</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -3384,7 +3384,7 @@
         <v>6</v>
       </c>
       <c r="C176">
-        <v>5.233848712179201</v>
+        <v>6.839437093779712</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
@@ -3401,7 +3401,7 @@
         <v>3</v>
       </c>
       <c r="C177">
-        <v>3.790213059280388</v>
+        <v>7.302560089886494</v>
       </c>
       <c r="D177" t="s">
         <v>7</v>
@@ -3418,7 +3418,7 @@
         <v>2</v>
       </c>
       <c r="C178">
-        <v>3.459828661481547</v>
+        <v>4.067012949045817</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
@@ -3435,7 +3435,7 @@
         <v>1</v>
       </c>
       <c r="C179">
-        <v>5.192411488402718</v>
+        <v>3.591515809492777</v>
       </c>
       <c r="D179" t="s">
         <v>7</v>
@@ -3452,7 +3452,7 @@
         <v>0</v>
       </c>
       <c r="C180">
-        <v>3.321071614600278</v>
+        <v>3.231865478672111</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -3469,7 +3469,7 @@
         <v>4</v>
       </c>
       <c r="C181">
-        <v>4.60674077745446</v>
+        <v>3.990155883021365</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
@@ -3486,7 +3486,7 @@
         <v>9</v>
       </c>
       <c r="C182">
-        <v>3.295982019366083</v>
+        <v>5.413817475309076</v>
       </c>
       <c r="D182" t="s">
         <v>7</v>
@@ -3503,7 +3503,7 @@
         <v>8</v>
       </c>
       <c r="C183">
-        <v>5.71185896584979</v>
+        <v>2.165333345943886</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
@@ -3520,7 +3520,7 @@
         <v>7</v>
       </c>
       <c r="C184">
-        <v>4.424377849849863</v>
+        <v>2.168006257736069</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
@@ -3537,7 +3537,7 @@
         <v>6</v>
       </c>
       <c r="C185">
-        <v>5.683788446129706</v>
+        <v>4.227583782528639</v>
       </c>
       <c r="D185" t="s">
         <v>7</v>
@@ -3554,7 +3554,7 @@
         <v>5</v>
       </c>
       <c r="C186">
-        <v>4.865413715617243</v>
+        <v>6.071238394570395</v>
       </c>
       <c r="D186" t="s">
         <v>7</v>
@@ -3571,7 +3571,7 @@
         <v>4</v>
       </c>
       <c r="C187">
-        <v>5.931573552994577</v>
+        <v>2.560146944742875</v>
       </c>
       <c r="D187" t="s">
         <v>7</v>
@@ -3588,7 +3588,7 @@
         <v>2</v>
       </c>
       <c r="C188">
-        <v>4.469519264426322</v>
+        <v>4.07364648641222</v>
       </c>
       <c r="D188" t="s">
         <v>7</v>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
       <c r="C189">
-        <v>5.109899635413458</v>
+        <v>3.764007392329093</v>
       </c>
       <c r="D189" t="s">
         <v>7</v>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
       <c r="C190">
-        <v>4.452253002122531</v>
+        <v>4.143224541551241</v>
       </c>
       <c r="D190" t="s">
         <v>7</v>
@@ -3639,7 +3639,7 @@
         <v>3</v>
       </c>
       <c r="C191">
-        <v>9.231853271453199</v>
+        <v>5.354539800436985</v>
       </c>
       <c r="D191" t="s">
         <v>7</v>
@@ -3656,7 +3656,7 @@
         <v>6</v>
       </c>
       <c r="C192">
-        <v>5.74471628040797</v>
+        <v>2.767996336493978</v>
       </c>
       <c r="D192" t="s">
         <v>7</v>
@@ -3673,7 +3673,7 @@
         <v>8</v>
       </c>
       <c r="C193">
-        <v>7.770773007127159</v>
+        <v>4.180550830483107</v>
       </c>
       <c r="D193" t="s">
         <v>7</v>
@@ -3690,7 +3690,7 @@
         <v>7</v>
       </c>
       <c r="C194">
-        <v>4.42666416971649</v>
+        <v>3.394978582635183</v>
       </c>
       <c r="D194" t="s">
         <v>7</v>
@@ -3707,7 +3707,7 @@
         <v>5</v>
       </c>
       <c r="C195">
-        <v>3.909804960917015</v>
+        <v>4.685150260265987</v>
       </c>
       <c r="D195" t="s">
         <v>7</v>
@@ -3724,7 +3724,7 @@
         <v>9</v>
       </c>
       <c r="C196">
-        <v>4.282561048639781</v>
+        <v>2.869317054363856</v>
       </c>
       <c r="D196" t="s">
         <v>7</v>
@@ -3741,7 +3741,7 @@
         <v>3</v>
       </c>
       <c r="C197">
-        <v>4.409410910790722</v>
+        <v>5.55805607993011</v>
       </c>
       <c r="D197" t="s">
         <v>7</v>
@@ -3758,7 +3758,7 @@
         <v>2</v>
       </c>
       <c r="C198">
-        <v>4.170156209722615</v>
+        <v>9.010112366623023</v>
       </c>
       <c r="D198" t="s">
         <v>7</v>
@@ -3775,7 +3775,7 @@
         <v>1</v>
       </c>
       <c r="C199">
-        <v>5.057334832960134</v>
+        <v>4.970087750979379</v>
       </c>
       <c r="D199" t="s">
         <v>7</v>
@@ -3792,7 +3792,7 @@
         <v>0</v>
       </c>
       <c r="C200">
-        <v>4.420113363530861</v>
+        <v>6.381774673575557</v>
       </c>
       <c r="D200" t="s">
         <v>7</v>
@@ -3809,7 +3809,7 @@
         <v>4</v>
       </c>
       <c r="C201">
-        <v>5.276005724282014</v>
+        <v>5.58318975963673</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
@@ -3826,7 +3826,7 @@
         <v>9</v>
       </c>
       <c r="C202">
-        <v>4.282716904315556</v>
+        <v>4.43455783207648</v>
       </c>
       <c r="D202" t="s">
         <v>7</v>
@@ -3843,7 +3843,7 @@
         <v>8</v>
       </c>
       <c r="C203">
-        <v>3.800373474002155</v>
+        <v>7.386609514772476</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
@@ -3860,7 +3860,7 @@
         <v>7</v>
       </c>
       <c r="C204">
-        <v>4.945917864896472</v>
+        <v>6.799071257180572</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
@@ -3877,7 +3877,7 @@
         <v>6</v>
       </c>
       <c r="C205">
-        <v>4.469869724524181</v>
+        <v>3.941341468897346</v>
       </c>
       <c r="D205" t="s">
         <v>7</v>
@@ -3894,7 +3894,7 @@
         <v>5</v>
       </c>
       <c r="C206">
-        <v>3.09862379352582</v>
+        <v>3.375486514775599</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
@@ -3911,7 +3911,7 @@
         <v>4</v>
       </c>
       <c r="C207">
-        <v>3.078805346990676</v>
+        <v>5.597370035824957</v>
       </c>
       <c r="D207" t="s">
         <v>7</v>
@@ -3928,7 +3928,7 @@
         <v>3</v>
       </c>
       <c r="C208">
-        <v>4.140687683361927</v>
+        <v>5.984338034841524</v>
       </c>
       <c r="D208" t="s">
         <v>7</v>
@@ -3945,7 +3945,7 @@
         <v>2</v>
       </c>
       <c r="C209">
-        <v>8.59105528720705</v>
+        <v>5.003552971573976</v>
       </c>
       <c r="D209" t="s">
         <v>7</v>
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="C210">
-        <v>2.185099490177898</v>
+        <v>6.524532313760067</v>
       </c>
       <c r="D210" t="s">
         <v>7</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C211">
-        <v>1.791159523242861</v>
+        <v>4.143258247875152</v>
       </c>
       <c r="D211" t="s">
         <v>7</v>
@@ -3996,7 +3996,7 @@
         <v>8</v>
       </c>
       <c r="C212">
-        <v>3.927170819824721</v>
+        <v>4.444595662835967</v>
       </c>
       <c r="D212" t="s">
         <v>7</v>
@@ -4013,7 +4013,7 @@
         <v>9</v>
       </c>
       <c r="C213">
-        <v>3.58876611419413</v>
+        <v>3.40743954558007</v>
       </c>
       <c r="D213" t="s">
         <v>7</v>
@@ -4030,7 +4030,7 @@
         <v>6</v>
       </c>
       <c r="C214">
-        <v>3.746981926274083</v>
+        <v>4.584717712195728</v>
       </c>
       <c r="D214" t="s">
         <v>7</v>
@@ -4047,7 +4047,7 @@
         <v>5</v>
       </c>
       <c r="C215">
-        <v>8.146358301799571</v>
+        <v>3.779449000586333</v>
       </c>
       <c r="D215" t="s">
         <v>7</v>
@@ -4064,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="C216">
-        <v>3.548689219375315</v>
+        <v>2.925762558223534</v>
       </c>
       <c r="D216" t="s">
         <v>7</v>
@@ -4081,7 +4081,7 @@
         <v>3</v>
       </c>
       <c r="C217">
-        <v>3.718263329585242</v>
+        <v>1.709061596001113</v>
       </c>
       <c r="D217" t="s">
         <v>7</v>
@@ -4098,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="C218">
-        <v>4.809293194560355</v>
+        <v>2.344156379491797</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
@@ -4115,7 +4115,7 @@
         <v>1</v>
       </c>
       <c r="C219">
-        <v>7.736182190224744</v>
+        <v>6.148774815643666</v>
       </c>
       <c r="D219" t="s">
         <v>7</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="C220">
-        <v>4.892050690822043</v>
+        <v>3.577370444763127</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
@@ -4149,7 +4149,7 @@
         <v>4</v>
       </c>
       <c r="C221">
-        <v>3.726512394505139</v>
+        <v>8.105041184051872</v>
       </c>
       <c r="D221" t="s">
         <v>7</v>
@@ -4166,7 +4166,7 @@
         <v>9</v>
       </c>
       <c r="C222">
-        <v>3.222477819591968</v>
+        <v>4.896364490349979</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
@@ -4183,7 +4183,7 @@
         <v>8</v>
       </c>
       <c r="C223">
-        <v>2.736384090332249</v>
+        <v>5.865877582172674</v>
       </c>
       <c r="D223" t="s">
         <v>7</v>
@@ -4200,7 +4200,7 @@
         <v>6</v>
       </c>
       <c r="C224">
-        <v>6.528169259438242</v>
+        <v>3.554288240458632</v>
       </c>
       <c r="D224" t="s">
         <v>7</v>
@@ -4217,7 +4217,7 @@
         <v>5</v>
       </c>
       <c r="C225">
-        <v>5.517321363479604</v>
+        <v>4.814930725187984</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
@@ -4234,7 +4234,7 @@
         <v>7</v>
       </c>
       <c r="C226">
-        <v>6.032708667673961</v>
+        <v>5.6084037381886</v>
       </c>
       <c r="D226" t="s">
         <v>7</v>
@@ -4251,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="C227">
-        <v>5.239357231898536</v>
+        <v>3.681217874060059</v>
       </c>
       <c r="D227" t="s">
         <v>7</v>
@@ -4268,7 +4268,7 @@
         <v>2</v>
       </c>
       <c r="C228">
-        <v>6.565460042894463</v>
+        <v>5.769501802908626</v>
       </c>
       <c r="D228" t="s">
         <v>7</v>
@@ -4285,7 +4285,7 @@
         <v>1</v>
       </c>
       <c r="C229">
-        <v>4.883859595419293</v>
+        <v>3.820792562000991</v>
       </c>
       <c r="D229" t="s">
         <v>7</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="C230">
-        <v>3.698924466872257</v>
+        <v>4.013066670894212</v>
       </c>
       <c r="D230" t="s">
         <v>7</v>
@@ -4319,7 +4319,7 @@
         <v>4</v>
       </c>
       <c r="C231">
-        <v>6.589361429687461</v>
+        <v>4.451458974166501</v>
       </c>
       <c r="D231" t="s">
         <v>7</v>
@@ -4336,7 +4336,7 @@
         <v>8</v>
       </c>
       <c r="C232">
-        <v>4.002524667701996</v>
+        <v>4.042665642075084</v>
       </c>
       <c r="D232" t="s">
         <v>7</v>
@@ -4353,7 +4353,7 @@
         <v>0</v>
       </c>
       <c r="C233">
-        <v>3.486616449344965</v>
+        <v>5.491966595008348</v>
       </c>
       <c r="D233" t="s">
         <v>7</v>
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
       <c r="C234">
-        <v>3.297143920923854</v>
+        <v>5.872279896650412</v>
       </c>
       <c r="D234" t="s">
         <v>7</v>
@@ -4387,7 +4387,7 @@
         <v>2</v>
       </c>
       <c r="C235">
-        <v>2.192957217373366</v>
+        <v>4.791879906673692</v>
       </c>
       <c r="D235" t="s">
         <v>7</v>
@@ -4404,7 +4404,7 @@
         <v>3</v>
       </c>
       <c r="C236">
-        <v>6.089909969016211</v>
+        <v>3.967717835556431</v>
       </c>
       <c r="D236" t="s">
         <v>7</v>
@@ -4421,7 +4421,7 @@
         <v>4</v>
       </c>
       <c r="C237">
-        <v>3.012052694687711</v>
+        <v>5.255308160421698</v>
       </c>
       <c r="D237" t="s">
         <v>7</v>
@@ -4438,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="C238">
-        <v>6.50848513575801</v>
+        <v>4.964722938841057</v>
       </c>
       <c r="D238" t="s">
         <v>7</v>
@@ -4455,7 +4455,7 @@
         <v>6</v>
       </c>
       <c r="C239">
-        <v>8.234219778125269</v>
+        <v>5.508356494851091</v>
       </c>
       <c r="D239" t="s">
         <v>7</v>
@@ -4472,7 +4472,7 @@
         <v>7</v>
       </c>
       <c r="C240">
-        <v>6.103866398400277</v>
+        <v>3.82778876487927</v>
       </c>
       <c r="D240" t="s">
         <v>7</v>
@@ -4489,7 +4489,7 @@
         <v>9</v>
       </c>
       <c r="C241">
-        <v>0.1401662071653922</v>
+        <v>3.577652161422648</v>
       </c>
       <c r="D241" t="s">
         <v>7</v>
